--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_32.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1661593.224729643</v>
+        <v>1701748.294277591</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484435</v>
+        <v>278692.0725916858</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6281329.423488063</v>
+        <v>6367567.494490372</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201048</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>327.2879775827847</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>331.484581935008</v>
       </c>
     </row>
     <row r="3">
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.82088317610265</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
         <v>128.8768572327044</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -826,16 +826,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>216.2017488798295</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>110.2564737593037</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>360.9100771515924</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -962,7 +962,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>331.484581935008</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1060,19 +1060,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>114.3486586083489</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>8.129390960577833</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1133,19 +1133,19 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>131.5762573843615</v>
+        <v>30.15774997692755</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1294,13 +1294,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>141.3509401177971</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>163.293878347428</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1382,13 +1382,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>129.7853418074785</v>
+        <v>397.383853062969</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225794</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>64.34965323462492</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>244.6538412157993</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>31.2439167388813</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1825,7 +1825,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>140.8432614602416</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>255.7785399527535</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2005,7 +2005,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2014,13 +2014,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.3431845617052</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>166.2277260299476</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791304972</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>24.62703520776628</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225728</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2372,7 +2372,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561535</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2570,7 +2570,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112152</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
         <v>0.4126214791313976</v>
@@ -2719,7 +2719,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>47.61404849749822</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>50.30825486907106</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,7 +3007,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>54.66258501924958</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3035,7 +3035,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225841</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3424,25 +3424,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>116.0434079398613</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>43.48898701015894</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3521,7 +3521,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791304972</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,13 +3661,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>30.11288841831338</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>86.27769679771731</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3718,7 +3718,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3727,7 +3727,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>211.0659068138625</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3898,7 +3898,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.05677735226156</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3958,7 +3958,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>231.9225098238358</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3977,7 +3977,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>248.9778919109249</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,16 +4183,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>193.8659438253727</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.6806259663171</v>
+        <v>153.4764845146214</v>
       </c>
       <c r="C2" t="n">
-        <v>418.0989517035849</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329735</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199659</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160839</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160839</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160839</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160839</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160839</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465122</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465122</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465122</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465122</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375547</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382459</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.029365327362</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080419</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080419</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080419</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080419</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080419</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531857</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.266320151571</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451225</v>
+        <v>175.7356509591251</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,43 +4395,43 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539592</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160839</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206599</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282783</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731819</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041176</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041176</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041176</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041176</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041176</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986079</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080419</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S3" t="n">
         <v>1633.7279925288</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1413766661235</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C4" t="n">
-        <v>369.5796651493484</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D4" t="n">
-        <v>203.7016723508711</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160839</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160839</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160839</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160839</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160839</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245745</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216087</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080419</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080419</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080419</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080419</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080419</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V4" t="n">
-        <v>1478.797825151298</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W4" t="n">
-        <v>1206.77142073759</v>
+        <v>1585.813254565969</v>
       </c>
       <c r="X4" t="n">
-        <v>961.3796660710025</v>
+        <v>1340.421499899382</v>
       </c>
       <c r="Y4" t="n">
-        <v>733.9599953851107</v>
+        <v>1113.00182921349</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>500.4187672127746</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>135.8631337263176</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>103.9937529411662</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>74.25941213986539</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="N5" t="n">
-        <v>1107.976466382457</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1181.865694717427</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762207</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720802</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>2159.002379407685</v>
       </c>
       <c r="W5" t="n">
-        <v>929.7110254252771</v>
+        <v>1754.146924818718</v>
       </c>
       <c r="X5" t="n">
-        <v>510.5685620045878</v>
+        <v>1335.004461398029</v>
       </c>
       <c r="Y5" t="n">
-        <v>175.7356509591251</v>
+        <v>926.7183376976824</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174123</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.1680387732647</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993477</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760927</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1024.341879988165</v>
+        <v>593.0357356940431</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>420.474024177268</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>254.5960313787907</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>139.0923358148019</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>139.0923358148019</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>139.0923358148019</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148019</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>325.1908411606128</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>743.4007229285738</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179231</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2340.960139477227</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2095.080693055682</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1816.647692308788</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1529.692184179218</v>
       </c>
       <c r="W7" t="n">
-        <v>1688.971924059632</v>
+        <v>1257.66577976551</v>
       </c>
       <c r="X7" t="n">
-        <v>1443.580169393044</v>
+        <v>1012.274025098922</v>
       </c>
       <c r="Y7" t="n">
-        <v>1216.160498707152</v>
+        <v>784.8543544130303</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>958.9147199317615</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C8" t="n">
-        <v>924.8126511555888</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D8" t="n">
-        <v>892.9432703704374</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E8" t="n">
-        <v>863.2089295691367</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>435.3414999783445</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="O8" t="n">
-        <v>1294.102365436318</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="P8" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1393.464329137293</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1134.24202645431</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1001.336715965056</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="W8" t="n">
-        <v>1000.521665416493</v>
+        <v>2234.742998128393</v>
       </c>
       <c r="X8" t="n">
-        <v>985.4196060362078</v>
+        <v>1815.600534707704</v>
       </c>
       <c r="Y8" t="n">
-        <v>981.1738863762653</v>
+        <v>1407.314411007357</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1181.483761245743</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W10" t="n">
-        <v>1697.183430080417</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1532.240118618369</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168567</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.514395351991</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1378.604610526435</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>944.8298656847301</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>516.9624360939379</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111518</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>3292.836108510712</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>3292.836108510712</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429651</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363477</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774511</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353822</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653475</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.232013758046</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>774.670302241271</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719582</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583914</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583914</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119685</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.84397037279</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829512</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477033</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2336.308741984731</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1898.166269168154</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1462.256484342598</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.2639626146351</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>385.866131237899</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111518</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2481.810506693462</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693462</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.990173263768</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097164</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055759</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055759</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.731606928797</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4357.509304245814</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3994.89235417964</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3590.036899590674</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3170.894436169985</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2762.608312469638</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.2298140987272</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="C16" t="n">
-        <v>806.2298140987272</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D16" t="n">
-        <v>640.3518213002499</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E16" t="n">
-        <v>470.5938175509872</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>293.8867635127434</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>128.295488538571</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583914</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583914</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881911</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460366</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713472</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583902</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170194</v>
+        <v>1584.727384212028</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.468103503606</v>
+        <v>1339.33562954544</v>
       </c>
       <c r="Y16" t="n">
-        <v>998.0484328177142</v>
+        <v>1111.915958859548</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.025455181382</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2086.663293612944</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1650.753508787388</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1216.978763945684</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.1113343548914</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>387.7135029781552</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
-        <v>98.58334842137147</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742893</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3385.204695523526</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356921</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315517</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068573</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.51554725241</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125449</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442465</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376292</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787325</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.611149366636</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.32502566629</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126642</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493065</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958598</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228135</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389751</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.319000605159</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818291</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.2053465480414</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>449.2053465480414</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>449.2053465480414</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>449.2053465480414</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>449.2053465480414</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>449.2053465480414</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.650331805841</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741133</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474327</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132066</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.0589944924274</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>808.0771858389842</v>
+        <v>849.8497331100112</v>
       </c>
       <c r="C19" t="n">
-        <v>635.5154743222091</v>
+        <v>677.2880215932362</v>
       </c>
       <c r="D19" t="n">
-        <v>469.6374815237318</v>
+        <v>677.2880215932362</v>
       </c>
       <c r="E19" t="n">
-        <v>299.879477774469</v>
+        <v>507.5300178439735</v>
       </c>
       <c r="F19" t="n">
-        <v>123.1724237362252</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="G19" t="n">
-        <v>98.58334842137147</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H19" t="n">
-        <v>98.58334842137147</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860613</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571969</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.131369925158</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.615237106071</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263716</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2556.001589622168</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2310.122143200623</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2031.689142453729</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1744.733634324159</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1472.707229910451</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1227.315475243863</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>999.8958045579714</v>
+        <v>1041.668351828998</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009655</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771588</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004222</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436387</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5762,40 +5762,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257731</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136695</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5808,16 +5808,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
         <v>143.9964924545671</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477109</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>469.4349624223536</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>292.7279083841098</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>127.1366334099375</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
         <v>2090.757574835212</v>
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5999,40 +5999,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6045,16 +6045,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
         <v>143.9964924545671</v>
@@ -6151,7 +6151,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C26" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E26" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771588</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004227</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6282,16 +6282,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
         <v>143.9964924545671</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>922.9010479080736</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>750.3393363912985</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>584.4613435928212</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2670.825451691258</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2424.946005269713</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2146.513004522818</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1859.557496393248</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.53109197954</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1342.139337312952</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1114.719666627061</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>831.0115848906036</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>665.1335920921263</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>495.3755883428635</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>318.6685343046197</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>153.0772593304474</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2451.623182457407</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2173.190181710512</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,43 +6707,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3603.973621145286</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6880,7 +6880,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
         <v>2700.681281130895</v>
@@ -6892,7 +6892,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
         <v>1617.386921419177</v>
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,22 +6938,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
         <v>5113.04201353898</v>
@@ -6974,13 +6974,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903953</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736203</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="D37" t="n">
-        <v>632.556342075143</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258802</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>286.0912842876364</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461862</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109383</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="38">
@@ -7151,49 +7151,49 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771586</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004224</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436387</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.710185817961</v>
+        <v>1039.174348374283</v>
       </c>
       <c r="C40" t="n">
-        <v>926.1484743011862</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>760.2704815027089</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>673.121292818146</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799022</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7366,16 +7366,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>2035.366634303136</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1763.340229889428</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1517.94847522284</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1290.528804536948</v>
+        <v>1230.99296709327</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2527.052675911532</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.910203094956</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1653.0004182694</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.225673427695</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>791.3582438369031</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>389.9604124601669</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>100.8302579033833</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305233</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834412</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.018447941619</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2665.68509916387</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3645.864765734177</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4474.174640567572</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5020.673426526168</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526168</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5020.673426526168</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4807.475540855599</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4548.253238172616</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4185.636288106442</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3780.780833517476</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.638370096787</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2953.35224639644</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218162</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584584</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.0384635050117</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319654</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.534210448127</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143109</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305233</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909809</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571932</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914992</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009332</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457715</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788285</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223586</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015793</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1006.90991762563</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>1006.90991762563</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>841.0319248271524</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>671.2739210778897</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>494.5668670396458</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>328.9755920654735</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>189.073417755848</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305233</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952132</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663488</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343099</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372867</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433323</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433323</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S43" t="n">
-        <v>2717.073078433323</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2471.193632011778</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2192.760631264884</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1905.805123135314</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1671.539961697096</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1426.148207030509</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.728536344617</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2336.308741984733</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2084.815921872688</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>787.2639626146351</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>385.866131237899</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>96.73597668111523</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111523</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2481.810506693465</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3461.990173263771</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4290.300048097167</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4836.798834055761</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055761</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>4836.798834055761</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4616.7316069288</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4357.509304245817</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3994.892354179643</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3590.036899590677</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3170.894436169987</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2762.608312469641</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556036</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825573</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987189</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649028</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111523</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077852</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1175.794137292997</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>1003.232425776222</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>837.3544329777444</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>667.5964292284816</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>490.8893751902378</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>325.2981002160654</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>185.39592590644</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111523</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2554.154217881911</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2308.274771460366</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2112.450585778171</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>2112.450585778171</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1840.424181364463</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1595.032426697876</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1367.612756011984</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201048</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.289898879841</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201048</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201048</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201047</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888825</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201048</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680305</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684646</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>72.80589558611337</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741776</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8374,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>110.4038313238425</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,31 +8450,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8535,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8617,13 +8617,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8696,13 +8696,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>860.0355415814561</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>40.81776196807232</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9173,10 +9173,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
-        <v>951.4711125638378</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352437</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352437</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,22 +9881,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446113</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10355,16 +10355,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>801.4298400828734</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10586,25 +10586,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>222.8350353226178</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>40.81776196807505</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>267.5985112554903</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>184.7831561774884</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>107.2592358276479</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>128.4628789093298</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>177.9825081356574</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627254</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>58.91774794908522</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>113.8761173587629</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>110.0349065174851</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>88.19489769745817</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>229.4233680290243</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627249</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>52.01701577190883</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>140.7232059832939</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>81.7827269140528</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25676,10 +25676,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>6.800648041829226</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627218</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>37.38363054573563</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>184.7831561774861</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,16 +26071,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>81.78272691405301</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>533868.5402772928</v>
+        <v>533868.5402772927</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>533868.5402772927</v>
+        <v>542323.4218928097</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>533868.5402772927</v>
+        <v>543845.7419234266</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>531826.5111510108</v>
+        <v>554270.1976493249</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>531826.5111510108</v>
+        <v>554270.1976493249</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>539331.1004519523</v>
+        <v>554270.1976493248</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>554270.1976493249</v>
+        <v>554270.1976493248</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>554270.1976493248</v>
+        <v>554270.1976493249</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>546765.6083483835</v>
+        <v>554270.1976493249</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>531826.511151011</v>
+        <v>554270.1976493249</v>
       </c>
     </row>
   </sheetData>
@@ -26314,28 +26314,28 @@
         <v>428917.8559123268</v>
       </c>
       <c r="C2" t="n">
+        <v>428917.8559123268</v>
+      </c>
+      <c r="D2" t="n">
         <v>428917.8559123267</v>
       </c>
-      <c r="D2" t="n">
-        <v>428917.8559123269</v>
-      </c>
       <c r="E2" t="n">
-        <v>404419.118377341</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="F2" t="n">
-        <v>404419.1183773412</v>
+        <v>421486.0673098818</v>
       </c>
       <c r="G2" t="n">
-        <v>410125.8654560123</v>
+        <v>421486.0673098818</v>
       </c>
       <c r="H2" t="n">
-        <v>421486.0673098818</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="I2" t="n">
         <v>421486.0673098819</v>
       </c>
       <c r="J2" t="n">
-        <v>421486.067309882</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="K2" t="n">
         <v>421486.0673098819</v>
@@ -26344,16 +26344,16 @@
         <v>421486.0673098819</v>
       </c>
       <c r="M2" t="n">
-        <v>421486.0673098819</v>
+        <v>421486.0673098818</v>
       </c>
       <c r="N2" t="n">
         <v>421486.0673098819</v>
       </c>
       <c r="O2" t="n">
-        <v>415779.320231211</v>
+        <v>421486.067309882</v>
       </c>
       <c r="P2" t="n">
-        <v>404419.1183773414</v>
+        <v>421486.0673098819</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597101</v>
+        <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501654</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998241</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042851708</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996197</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877281</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622019</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193696.6796511643</v>
+        <v>193696.6796511644</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511645</v>
+        <v>154981.0317940152</v>
       </c>
       <c r="D4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>52352.49019908699</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="F4" t="n">
-        <v>52352.49019908701</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="G4" t="n">
-        <v>53091.23475128206</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="H4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="I4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="J4" t="n">
-        <v>54561.82510962278</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="K4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
-        <v>54561.82510962271</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="M4" t="n">
         <v>54561.82510962275</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.8251096228</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="O4" t="n">
-        <v>53823.08055742771</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="P4" t="n">
-        <v>52352.49019908701</v>
+        <v>54561.82510962276</v>
       </c>
     </row>
     <row r="5">
@@ -26467,31 +26467,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722236</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800265</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024231</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319774</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764756</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33605.08746423003</v>
+        <v>33605.08746423008</v>
       </c>
       <c r="C6" t="n">
-        <v>175796.38812394</v>
+        <v>135392.8424152924</v>
       </c>
       <c r="D6" t="n">
-        <v>175796.3881239401</v>
+        <v>195167.5415547975</v>
       </c>
       <c r="E6" t="n">
-        <v>44192.26387856918</v>
+        <v>106827.6700340342</v>
       </c>
       <c r="F6" t="n">
-        <v>278547.2859006067</v>
+        <v>289182.7792550838</v>
       </c>
       <c r="G6" t="n">
-        <v>275782.0748616362</v>
+        <v>289182.7792550838</v>
       </c>
       <c r="H6" t="n">
-        <v>276803.2486145046</v>
+        <v>289182.7792550839</v>
       </c>
       <c r="I6" t="n">
-        <v>289206.0035944667</v>
+        <v>289182.7792550839</v>
       </c>
       <c r="J6" t="n">
-        <v>178191.5382494764</v>
+        <v>178168.3139100938</v>
       </c>
       <c r="K6" t="n">
-        <v>289206.0035944666</v>
+        <v>236136.9246163112</v>
       </c>
       <c r="L6" t="n">
-        <v>289206.0035944667</v>
+        <v>279790.4775284619</v>
       </c>
       <c r="M6" t="n">
-        <v>93604.82431139896</v>
+        <v>136982.6083170963</v>
       </c>
       <c r="N6" t="n">
-        <v>289206.0035944666</v>
+        <v>289182.7792550839</v>
       </c>
       <c r="O6" t="n">
-        <v>285642.0035905855</v>
+        <v>289182.7792550841</v>
       </c>
       <c r="P6" t="n">
-        <v>278547.2859006068</v>
+        <v>289182.7792550839</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201048</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267143</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631542</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201048</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483604</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939223</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675320323</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760161</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201048</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483604</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939223</v>
       </c>
       <c r="M4" t="n">
-        <v>784.903850993835</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201048</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483604</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939223</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675320323</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760161</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306127</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>104.2627093945152</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27436,16 +27436,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>72.71868052833509</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,10 +27594,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>67.88420416844431</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>159.0496666102677</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>72.8509709368185</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>72.71868052833509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>53.71176510342119</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>261.1767494089935</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,19 +27853,19 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>400</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>227.4145231811503</v>
+        <v>328.8330305885842</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,13 +28014,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>33.58904338006428</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>79.64395877249362</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201048</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.289898879841</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201048</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201048</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201047</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888825</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201048</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680305</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684646</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>72.80589558611337</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741776</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,10 +35033,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>110.4038313238425</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,16 +35337,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,19 +35410,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>860.0355415814561</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,7 +35501,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,16 +35574,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821539</v>
@@ -35647,13 +35647,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>40.81776196807232</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,7 +35811,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35823,7 +35823,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,10 +35893,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
-        <v>951.4711125638378</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,13 +36048,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352437</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352437</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36519,10 +36519,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446113</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -37075,16 +37075,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>801.4298400828734</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37306,25 +37306,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37780,7 +37780,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>222.8350353226178</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37950,13 +37950,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821539</v>
+        <v>169.891691782158</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38026,7 +38026,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>40.81776196807505</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
